--- a/data/raw/thirdpostbatch2.xlsx
+++ b/data/raw/thirdpostbatch2.xlsx
@@ -122,7 +122,7 @@
     <t>7145484952 3348759</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;font color="aqua" size="4"&gt; &lt;b&gt;(714) 548-4952 &lt;/b&gt; &lt;font color="blue" size="4"&gt; Hi guys ! Experience an amazing session with a beautiful girl who is committed to pleasing you... Cute girls to relax you with our soft and delightful touch. All in a luxurious quiet place here in Anaheim. Full body massage Shower &amp;amp; body scrub Relaxation with excellent menu of services Spend an hour in paradise ! You will be so pleased with your experience. You will have memories to last a lifetime.... Call now ! (714) 548-4952 &lt;/font&gt; &lt;img alt="" src="http://68.media.tumblr.com/b9738f26d334875903d418ab322b7b91/tumblr_olqmw0hQdR1rdwjilo3_500.gif" style="display: inline-block; vertical-align: top; margin: 0px; width: 50%; height: auto;"/&gt; &lt;/font&gt;</t>
+    <t xml:space="preserve"> &lt;font color="aqua" size="4"&gt;  (714) 548-4952   &lt;font color="blue" size="4"&gt; Hi guys ! Experience an amazing session with a beautiful girl who is committed to pleasing you... Cute girls to relax you with our soft and delightful touch. All in a luxurious quiet place here in Anaheim. Full body massage Shower &amp;amp; body scrub Relaxation with excellent menu of services Spend an hour in paradise ! You will be so pleased with your experience. You will have memories to last a lifetime.... Call now ! (714) 548-4952 &lt;/font&gt; &lt;img alt="" src="http://68.media.tumblr.com/b9738f26d334875903d418ab322b7b91/tumblr_olqmw0hQdR1rdwjilo3_500.gif" style="display: inline-block; vertical-align: top; margin: 0px; width: 50%; height: auto;"/&gt; &lt;/font&gt;</t>
   </si>
   <si>
     <t>1121</t>
@@ -212,7 +212,7 @@
     <t>3233389316</t>
   </si>
   <si>
-    <t xml:space="preserve">When you want something done right, don't haggle, hire a trusted experienced professional.  If sensuality were a religion I fail to see how I wouldn't be canonized as a saint.  My FBSM sessions are &lt;b&gt;slow, soothing, teasing, triggerpoint cunning art. &lt;/b&gt;  Your body is a map I never get tired exploring so let me render you helpless and play you like a musical instrument ...    323-338-9316 Melina &lt;b&gt; ( NO TEXTING) Please call for a proper conversation and screening. I am picky, thorough and careful and hope you are the same! &lt;/b&gt; PRIVACY IS SACRED!   &lt;i&gt;Daytime only. Incall only. &lt;/i&gt; &lt;b&gt;12 noon to 8pm&lt;/b&gt;  🌼 &lt;b&gt;180/Hour 🌸120 HalfHour&lt;/b&gt; </t>
+    <t xml:space="preserve">When you want something done right, don't haggle, hire a trusted experienced professional.  If sensuality were a religion I fail to see how I wouldn't be canonized as a saint.  My FBSM sessions are  slow, soothing, teasing, triggerpoint cunning art.    Your body is a map I never get tired exploring so let me render you helpless and play you like a musical instrument ...    323-338-9316 Melina   ( NO TEXTING) Please call for a proper conversation and screening. I am picky, thorough and careful and hope you are the same!   PRIVACY IS SACRED!    Daytime only. Incall only.    12 noon to 8pm   🌼  180/Hour 🌸120 HalfHour  </t>
   </si>
   <si>
     <t>Independent Professional  FBSM for the PRIVACY&amp;QUALITY; oriented</t>
@@ -275,7 +275,7 @@
     <t>3234624214</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;b&gt;&lt;font color="purple"&gt;&lt;font size="4"&gt;"You won't believe till you are experienced it!" We are providing Massage by our good looking masseurs who also have the high skill in Thai massage. We have trained massage from Thailand. Our place is like an oasis in the middle of a bustling metropolis: the perfect place to relax and recharge your body from the chaos of daily living. Let us nourish your body and soul with a good service, privacy, and nice massage rooms. Come stressed. Leave relaxed. Our guys will massage your all worries and stresses away PLEASE KINDLY CONTACT 323.462.4214 &lt;i&gt;We welcome a diverse group of clients; regardless of age, race, or body size.&lt;/i&gt; &lt;font color="blue" size="4"&gt; Professional Massage Thai Massage, Swedish, Combination, Deep Tissue, Body Scrub, and 4 Hands Massage Free Shower and Full Hour Service, Parking lot, and Accepted Credit Card&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt;  &lt;font color="purple"&gt;&lt;font size="4"&gt;"You won't believe till you are experienced it!" We are providing Massage by our good looking masseurs who also have the high skill in Thai massage. We have trained massage from Thailand. Our place is like an oasis in the middle of a bustling metropolis: the perfect place to relax and recharge your body from the chaos of daily living. Let us nourish your body and soul with a good service, privacy, and nice massage rooms. Come stressed. Leave relaxed. Our guys will massage your all worries and stresses away PLEASE KINDLY CONTACT 323.462.4214  We welcome a diverse group of clients; regardless of age, race, or body size.  &lt;font color="blue" size="4"&gt; Professional Massage Thai Massage, Swedish, Combination, Deep Tissue, Body Scrub, and 4 Hands Massage Free Shower and Full Hour Service, Parking lot, and Accepted Credit Card&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>Amazing!!!!!! THAI Ladyboi !!!!! in LA❣️❣️❣️❣️</t>
@@ -320,7 +320,7 @@
     <t>0113818 1183083295 4474297</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt;&lt;i&gt;&lt;a&gt;&lt;b&gt;——————— ◆ ☆ Wonderful Bodywork ☆ ◆———————&lt;/b&gt;&lt;/a&gt; &lt;ol&gt;▬▬► ENJOY YOUR VISIT HERE TODAY ! ▬▬► Visit us to see the friendliest and the best SPA in Town&lt;/ol&gt; &lt;a&gt;?———————— ◆ Call 310 - 636 - 0020 ◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► near W. Washington Blvd and Sepulveda Blvd ▬▬► 4133 Sepulveda Blvd., Culver City, California 90230&lt;/ol&gt; &lt;a&gt;?———————— ◆&lt;a href="https://www.google.com/maps/place/4133+Sepulveda+Blvd,+Culver+City,+CA+90230/@34.0113818,-118.3083295,13z/data=!4m2!3m1!1s0x80c2ba3e3ab9182f:0x1f44742973fc2973" target="_blank"&gt;&lt;b&gt; MAP : CLICK HERE &lt;/b&gt;&lt;/a&gt;&lt;a&gt;◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► 7 days a week ▬▬► Clean and Safe&lt;/ol&gt; &lt;b&gt;&lt;a&gt;———————— ◆ Call 310 - 636 - 0020 ◆ ———————— &lt;/a&gt;&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/ol&gt;&lt;/ol&gt;</t>
+    <t xml:space="preserve"> &lt;ol&gt;&lt;ol&gt; &lt;a&gt; ——————— ◆ ☆ Wonderful Bodywork ☆ ◆——————— &lt;/a&gt; &lt;ol&gt;▬▬► ENJOY YOUR VISIT HERE TODAY ! ▬▬► Visit us to see the friendliest and the best SPA in Town&lt;/ol&gt; &lt;a&gt;?———————— ◆ Call 310 - 636 - 0020 ◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► near W. Washington Blvd and Sepulveda Blvd ▬▬► 4133 Sepulveda Blvd., Culver City, California 90230&lt;/ol&gt; &lt;a&gt;?———————— ◆&lt;a href="https://www.google.com/maps/place/4133+Sepulveda+Blvd,+Culver+City,+CA+90230/@34.0113818,-118.3083295,13z/data=!4m2!3m1!1s0x80c2ba3e3ab9182f:0x1f44742973fc2973" target="_blank"&gt;  MAP : CLICK HERE  &lt;/a&gt;&lt;a&gt;◆ ————————?&lt;/a&gt; &lt;ol&gt;▬▬► 7 days a week ▬▬► Clean and Safe&lt;/ol&gt;  &lt;a&gt;———————— ◆ Call 310 - 636 - 0020 ◆ ———————— &lt;/a&gt; &lt;/a&gt; &lt;/ol&gt;&lt;/ol&gt;</t>
   </si>
   <si>
     <t>★☆★ ▬🎯▬🎀▬🍎▬💚▬▬🎯▬🎀▬▐▐ ▬•♥•▬ TOP QUALITY ▬★☆★ ▬ 🎯▬🎀▬🍎▬💚▬►▬🎯▬🎀▬ Heavenly Relaxation ▬</t>
@@ -401,7 +401,7 @@
     <t>Fairfax Between Santa Monica &amp; Melrose, Hollywood, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;b&gt;&lt;/b&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤❤H2O MASSAGE❤❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h1&gt; </t>
+    <t xml:space="preserve">               &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤❤H2O MASSAGE❤❤❤    &lt;/span&gt;&lt;/h1&gt; </t>
   </si>
   <si>
     <t>💞Make Your Day💝 Revive Life Massage 💆Relax💝Renew💞 Youthful Trim Asian Girls💟 Healthy Is Happy</t>
@@ -413,7 +413,7 @@
     <t>[u'145800347', u'133907093', u'74523365', u'30559081', u'30553754']</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;h4 style="text-align:center;"&gt; &lt;span style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;OPEN 10 AM- 10 PM&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/span&gt;&lt;/h4&gt; </t>
+    <t xml:space="preserve"> &lt;h4 style="text-align:center;"&gt; &lt;span style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;    &lt;font color="red"&gt;OPEN 10 AM- 10 PM&lt;/font&gt;     &lt;/span&gt;&lt;/span&gt;&lt;/h4&gt; </t>
   </si>
   <si>
     <t>💖Holiday Health Recovery 💆🏻Relaxing Massage Therapy💆🏻💖🌹Youthful Asian Girls🌹 Prepare For The Week</t>
@@ -452,7 +452,7 @@
     <t>6265864855</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;font color="red" size="3"&gt;Relax your Body and Mind &lt;/font&gt; &lt;/b&gt;  &lt;b&gt;&lt;font color="blue" size="2"&gt;Open 7 Days / 10:30am to 10:00pm&lt;/font&gt;&lt;/b&gt;   &lt;font color="green" face="verdana"&gt;We great hands and Unique Touch&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;100% Young Nice Pertty Girls&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;No.1 Body Massage service&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;New staff / Clean rooms / Soft music &lt;/font&gt;   &lt;font color="green" face="verdana"&gt;Hot Oil / free show.&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;We do different kids of Massage&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;Sensual Touch / Thai Style / Deep tissue&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;Soothing / Soft Light Touch / Swedish&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;Body oil massage&lt;/font&gt;   &lt;b&gt;&lt;font color="OrangeRed" size="3"&gt;30min--40$ &lt;/font&gt;&lt;/b&gt;  &lt;b&gt;&lt;font color="OrangeRed" size="3"&gt;60min--60$&lt;/font&gt;&lt;/b&gt;  🤙Make appointment better / Walk-in Welcome  ┈━═☆💲：Cash / Accept Credit Card  ️┈━═☆：626-586-4855 (InCall / Text )  ┈━═☆: we have free parking   &lt;u&gt;┈━═☆: 418 E 12st Los Angeles ca90015&lt;/u&gt; </t>
+    <t xml:space="preserve">  &lt;font color="red" size="3"&gt;Relax your Body and Mind &lt;/font&gt;     &lt;font color="blue" size="2"&gt;Open 7 Days / 10:30am to 10:00pm&lt;/font&gt;    &lt;font color="green" face="verdana"&gt;We great hands and Unique Touch&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;100% Young Nice Pertty Girls&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;No.1 Body Massage service&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;New staff / Clean rooms / Soft music &lt;/font&gt;   &lt;font color="green" face="verdana"&gt;Hot Oil / free show.&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;We do different kids of Massage&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;Sensual Touch / Thai Style / Deep tissue&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;Soothing / Soft Light Touch / Swedish&lt;/font&gt;   &lt;font color="green" face="verdana"&gt;Body oil massage&lt;/font&gt;    &lt;font color="OrangeRed" size="3"&gt;30min--40$ &lt;/font&gt;    &lt;font color="OrangeRed" size="3"&gt;60min--60$&lt;/font&gt;   🤙Make appointment better / Walk-in Welcome  ┈━═☆💲：Cash / Accept Credit Card  ️┈━═☆：626-586-4855 (InCall / Text )  ┈━═☆: we have free parking    ┈━═☆: 418 E 12st Los Angeles ca90015  </t>
   </si>
   <si>
     <t>HOT ASIAN GIRL💕✨║!! new girl new girl new girl new girl !!! East 12st .free parking</t>
@@ -518,7 +518,7 @@
     <t>5623738699 9885310</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-color:yellow;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/d.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/w.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/y.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;/a&gt; &amp;lt; &lt;p&gt;~*~*~*~*~*Asian Massage ~*~*~*~*~* &lt;p&gt;&lt;font color="red" size="4"&gt;~*~*~*(562)373-8699~*~*~*&lt;/font&gt; &lt;font color="#0099FF" size="4"&gt; &lt;p&gt;open 7days 10:00am-10:00pm&lt;/p&gt;&lt;/font&gt; &lt;font color="#0099FF" size="5"&gt;&lt;u&gt;11455 Paramount Blvd#E Downey CA90241 (Lots Of Parking Cross Street Firestone Blvd )&lt;/u&gt;&lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;p&gt;BigChangeAllNewGirls&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt; EXACTIY &lt;p&gt; What You've Been Looking For Friendly&amp;amp;WeetCuteAsianGirls.Welcome;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt;Swedish * Shiatsu * Deep tissue * 4 Hands *Body oil massage* &lt;hr/&gt;&lt;p&gt;Enjoy Relaxing Bodywork Mongst RelaxingMusic &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;hr/&gt;&lt;p&gt;&lt;font color="purple" size="5"&gt;--**--WarmRoom,BeautifulMusic--**-- &lt;p&gt;~~*~~*~~*~~ $40/30mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*~~*~~ $50/60mins ~~*~~*~~*~~&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt; &lt;hr/&gt;&lt;p&gt;Many different Special NEW Asian Pretty Girls on &lt;p&gt;staff to pamper you!!! &lt;p&gt;let our Professional Therapist relax your Body, Mind &amp;amp;Soul; with &lt;p&gt;our Traditional Chinese Full Body Massage. &lt;p&gt;Give us a try! &lt;p&gt;...Walk-ins, &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="200" src="http://dl.glitter-graphics.net/pub/913/913921fehobutr4y.gif" width="500"/&gt;&lt;/a&gt; &lt;div style="visibility:visible;width:540px;margin:auto;"&gt; &lt;/div&gt; &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/div&gt; &lt;p class="metaInfoDisplay"&gt;11455 Paramount Blvd #E Downey CA, 90241    &lt;a href="http://maps.google.com/maps?q=11455+Paramount+Blvd+%23E+Downey+CA+90241" target="_blank"&gt;google map&lt;/a&gt; | &lt;a href="http://maps.yahoo.com/maps_result?addr=11455%20Paramount%20Blvd%20%23E%20Downey%20CA&amp;amp;country=US&amp;amp;csz=90241" target="_blank"&gt;yahoo map&lt;/a&gt; &lt;/p&gt; &lt;div style="padding-left:2em;"&gt; • Location: Downey, Downtown, Hemet🎈3🎈HottestAsianYoungGirls🎈, Long Beach, Los Angeles &lt;/div&gt; &lt;div style="padding-left:2em;"&gt; • Post ID: 98853102 losangeles&lt;/br&gt;&lt;/div&gt; &lt;div data-oid="98853102" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt; &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=98853102" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; &lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-color:yellow;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/d.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/w.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/y.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;/a&gt; &amp;lt; &lt;p&gt;~*~*~*~*~*Asian Massage ~*~*~*~*~* &lt;p&gt;&lt;font color="red" size="4"&gt;~*~*~*(562)373-8699~*~*~*&lt;/font&gt; &lt;font color="#0099FF" size="4"&gt; &lt;p&gt;open 7days 10:00am-10:00pm&lt;/p&gt;&lt;/font&gt; &lt;font color="#0099FF" size="5"&gt; 11455 Paramount Blvd#E Downey CA90241 (Lots Of Parking Cross Street Firestone Blvd ) &lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;p&gt;BigChangeAllNewGirls&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt; EXACTIY &lt;p&gt; What You've Been Looking For Friendly&amp;amp;WeetCuteAsianGirls.Welcome;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt;Swedish * Shiatsu * Deep tissue * 4 Hands *Body oil massage* &lt;hr/&gt;&lt;p&gt;Enjoy Relaxing Bodywork Mongst RelaxingMusic &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;hr/&gt;&lt;p&gt;&lt;font color="purple" size="5"&gt;--**--WarmRoom,BeautifulMusic--**-- &lt;p&gt;~~*~~*~~*~~ $40/30mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*~~*~~ $50/60mins ~~*~~*~~*~~&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt; &lt;hr/&gt;&lt;p&gt;Many different Special NEW Asian Pretty Girls on &lt;p&gt;staff to pamper you!!! &lt;p&gt;let our Professional Therapist relax your Body, Mind &amp;amp;Soul; with &lt;p&gt;our Traditional Chinese Full Body Massage. &lt;p&gt;Give us a try! &lt;p&gt;...Walk-ins, &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="200" src="http://dl.glitter-graphics.net/pub/913/913921fehobutr4y.gif" width="500"/&gt;&lt;/a&gt; &lt;div style="visibility:visible;width:540px;margin:auto;"&gt; &lt;/div&gt; &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/div&gt; &lt;p class="metaInfoDisplay"&gt;11455 Paramount Blvd #E Downey CA, 90241    &lt;a href="http://maps.google.com/maps?q=11455+Paramount+Blvd+%23E+Downey+CA+90241" target="_blank"&gt;google map&lt;/a&gt; | &lt;a href="http://maps.yahoo.com/maps_result?addr=11455%20Paramount%20Blvd%20%23E%20Downey%20CA&amp;amp;country=US&amp;amp;csz=90241" target="_blank"&gt;yahoo map&lt;/a&gt; &lt;/p&gt; &lt;div style="padding-left:2em;"&gt; • Location: Downey, Downtown, Hemet🎈3🎈HottestAsianYoungGirls🎈, Long Beach, Los Angeles &lt;/div&gt; &lt;div style="padding-left:2em;"&gt; • Post ID: 98853102 losangeles&lt;/br&gt;&lt;/div&gt; &lt;div data-oid="98853102" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt; &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=98853102" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>💝💝💝💝💝💝💝😍Are U Search For The Best?Yes!Yes!Yes!🎀3💖Very Cute Asian Girls R HereWaiting 4 U!🍏🍏🍏🍏🍏🍏🍏</t>
@@ -533,7 +533,7 @@
     <t>1372023 2466502 4135099 4135498 3235347734 3233780152</t>
   </si>
   <si>
-    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413509994.jpg"/&gt; &lt;img alt="" border="2" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413549881.jpg"/&gt; &lt;i&gt;&lt;a&gt; ❤️💚❤️💚&lt;/a&gt;————— &lt;b&gt;Llame para una cita: 323-534-7734 // 323-378-0152&lt;/b&gt;—————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt;&lt;b&gt;Latina nueva y dulce / New Latina Staff Everyday&lt;/b&gt;&lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt; &lt;b&gt;🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete&lt;/b&gt; &lt;b&gt;🌺 TENEMOS APARCAMIENTO / Spacious parking space&lt;/b&gt; &lt;b&gt;🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands &lt;/b&gt; &lt;b&gt;🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress&lt;/b&gt; &lt;a&gt;&lt;b&gt;————— 💚 1O am ~ 8 pm —————&lt;/b&gt;&lt;/a&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve">   &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413509994.jpg"/&gt; &lt;img alt="" border="2" src="http://pic20.picturetrail.com/VOL1346/13720237/24665025/413549881.jpg"/&gt;  &lt;a&gt; ❤️💚❤️💚&lt;/a&gt;—————  Llame para una cita: 323-534-7734 // 323-378-0152 —————&lt;a&gt;❤️💚❤️💚&lt;/a&gt; &lt;a&gt;💋&lt;/a&gt;—— &lt;a&gt; Latina nueva y dulce / New Latina Staff Everyday &lt;/a&gt;——&lt;a&gt;💋&lt;/a&gt;  🌺 TE ATIENDEN EN UN LUGAR LIMPIO Y DISCRETO Clean, Cozy and Discrete   🌺 TENEMOS APARCAMIENTO / Spacious parking space   🌺 RELAJAR CON NUESTRAS MANOS DE SEDA Relaxation with silky hands    🌺 Ayudando al estrés y la ansiedad a desaparecer Melt away your stress  &lt;a&gt; ————— 💚 1O am ~ 8 pm ————— &lt;/a&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>💠💠 Grand Opening 💠💠 ▬▬▬▬▬▬▬ 🌺 Sweet 🌺 ▬▬▬▬▬▬▬ 🌺 Latina 🌺 ▬▬▬▬▬▬ 🌺 Staff 🌺 ▬▬▬▬▬ 💠💠 323-534-7734 💠💠</t>
@@ -545,7 +545,7 @@
     <t>(7O2)-8O2-O233 Culver City,Beverly Hills, Los Angeles, Santa Monica</t>
   </si>
   <si>
-    <t xml:space="preserve">HI GENTLEMEN,  Are looking for a REAL Top quality and no-rush service?   I am Konaka 20 years old Asian 5'2 100Lbs, All Natural 32D   1/2 Japanese 1/2 korean girl with striking eyes, luscious lips, a petite slender waist, sexy long legs, and soft silky luminous skin.   I love French Kissing n Touching , very sweet and Friendly,Very Sexy and Very Skilled.   I want to provide you with an unforgettable experience.   always un-rushed and discreet    Upscale Private Room  9am-11:30pm  💕 &lt;u&gt; 📞(7O2)-8O2-O233 📞&lt;/u&gt; 💕  </t>
+    <t xml:space="preserve">HI GENTLEMEN,  Are looking for a REAL Top quality and no-rush service?   I am Konaka 20 years old Asian 5'2 100Lbs, All Natural 32D   1/2 Japanese 1/2 korean girl with striking eyes, luscious lips, a petite slender waist, sexy long legs, and soft silky luminous skin.   I love French Kissing n Touching , very sweet and Friendly,Very Sexy and Very Skilled.   I want to provide you with an unforgettable experience.   always un-rushed and discreet    Upscale Private Room  9am-11:30pm  💕   📞(7O2)-8O2-O233 📞  💕  </t>
   </si>
   <si>
     <t>💋 Petite 5'1  REAL Korean COLLEGE Visiting  💋LUV Frensh Kissing n Touching 💋(7O2)-8O2-O233</t>
@@ -566,7 +566,7 @@
     <t>1216193 2338672 4096728 2138075615</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1801/12161935/23386726/409672838.jpg"/&gt; &lt;i&gt;&lt;font color="green"&gt;&lt;b&gt;▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬&lt;/b&gt;&lt;/font&gt;&lt;/i&gt;&lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt; &lt;img alt="" border="0" src="http://pic20.picturetrail.com/VOL1801/12161935/23386726/409672838.jpg"/&gt;  &lt;font color="green"&gt; ▬▬▬💜🔲💚▬▬▬　Pinkull Spa: 213-807-5615 ▬▬▬💜🔲💚▬▬▬ &lt;/font&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>❤️❤️🍀❤️❤️ ▬▬▬▬▬▬▬▬▬▬▬▬♥ ❤️❤️🍀❤️❤️ ♥ PINKULL SPA: 213-807-5615 ♥❤️❤️🍀❤️❤️ ▬▬▬▬▬▬▬▬▬▬▬❤️❤️🍀❤️❤️</t>
@@ -581,7 +581,7 @@
     <t>5623738699 9666048</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-color:yellow ;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/d.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/w.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/y.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;/a&gt; &amp;lt; &lt;p&gt;&lt;font color="red" size="4"&gt;~*~*~*(562)373-8699~*~*~*&lt;/font&gt; &lt;font color="#0099FF" size="4"&gt; &lt;p&gt;open 7days 10:00am-10:00pm&lt;/p&gt;&lt;/font&gt; &lt;font color="#0099FF" size="5"&gt;&lt;u&gt;11455 Paramount Blvd#E Downey CA90241 (Lots Of Parking Cross Street Firestone Blvd )&lt;/u&gt;&lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;p&gt;BigChangeAllNewGirls&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt; EXACTIY &lt;p&gt; What You've Been Looking For Friendly&amp;amp;WeetCuteAsianGirls.Welcome;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt;Swedish * Shiatsu * Deep tissue * 4 Hands *Body oil massage* &lt;hr/&gt;&lt;p&gt;Enjoy Relaxing Bodywork Mongst RelaxingMusic &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;hr/&gt;&lt;p&gt;&lt;font color="purple" size="5"&gt;--**--WarmRoom,BeautifulMusic--**-- &lt;p&gt;~~*~~*~~*~~ $40/30mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*~~*~~ $50/60mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*Acupuncture $60（by an appointment)~~*~~*&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt; &lt;hr/&gt;&lt;p&gt;Many different Special NEW Asian Pretty Girls on &lt;p&gt;staff to pamper you!!! &lt;p&gt;let our Professional Therapist relax your Body, Mind &amp;amp;Soul; with &lt;p&gt;our Traditional Chinese Full Body Massage. &lt;p&gt;Give us a try! &lt;p&gt;...Walk-ins, &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="200" src="http://dl.glitter-graphics.net/pub/913/913921fehobutr4y.gif" width="500"/&gt;&lt;/a&gt; &lt;div style="visibility:visible;width:540px;margin:auto;"&gt; &lt;/div&gt; &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/div&gt; &lt;p class="metaInfoDisplay"&gt;11455 Paramount Blvd #E Downey CA, 90241    &lt;a href="http://maps.google.com/maps?q=11455+Paramount+Blvd+%23E+Downey+CA+90241" target="_blank"&gt;google map&lt;/a&gt; | &lt;a href="http://maps.yahoo.com/maps_result?addr=11455%20Paramount%20Blvd%20%23E%20Downey%20CA&amp;amp;country=US&amp;amp;csz=90241" target="_blank"&gt;yahoo map&lt;/a&gt; &lt;/p&gt; &lt;div style="padding-left:2em;"&gt; • Location: Downey, Downtown, Long Beach, Los Angeles, 🌹3🌹HottestAsianYoungGirls🌹NewStudentsIn🌹 &lt;/div&gt; &lt;div style="padding-left:2em;"&gt; • Post ID: 96660487 losangeles&lt;/br&gt;&lt;/div&gt; &lt;div data-oid="96660487" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt; &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=96660487" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; &lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-color:yellow ;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/d.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/w.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/y.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;/a&gt; &amp;lt; &lt;p&gt;&lt;font color="red" size="4"&gt;~*~*~*(562)373-8699~*~*~*&lt;/font&gt; &lt;font color="#0099FF" size="4"&gt; &lt;p&gt;open 7days 10:00am-10:00pm&lt;/p&gt;&lt;/font&gt; &lt;font color="#0099FF" size="5"&gt; 11455 Paramount Blvd#E Downey CA90241 (Lots Of Parking Cross Street Firestone Blvd ) &lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;p&gt;BigChangeAllNewGirls&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt; EXACTIY &lt;p&gt; What You've Been Looking For Friendly&amp;amp;WeetCuteAsianGirls.Welcome;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt;Swedish * Shiatsu * Deep tissue * 4 Hands *Body oil massage* &lt;hr/&gt;&lt;p&gt;Enjoy Relaxing Bodywork Mongst RelaxingMusic &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;hr/&gt;&lt;p&gt;&lt;font color="purple" size="5"&gt;--**--WarmRoom,BeautifulMusic--**-- &lt;p&gt;~~*~~*~~*~~ $40/30mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*~~*~~ $50/60mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*Acupuncture $60（by an appointment)~~*~~*&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt; &lt;hr/&gt;&lt;p&gt;Many different Special NEW Asian Pretty Girls on &lt;p&gt;staff to pamper you!!! &lt;p&gt;let our Professional Therapist relax your Body, Mind &amp;amp;Soul; with &lt;p&gt;our Traditional Chinese Full Body Massage. &lt;p&gt;Give us a try! &lt;p&gt;...Walk-ins, &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="200" src="http://dl.glitter-graphics.net/pub/913/913921fehobutr4y.gif" width="500"/&gt;&lt;/a&gt; &lt;div style="visibility:visible;width:540px;margin:auto;"&gt; &lt;/div&gt; &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/div&gt; &lt;p class="metaInfoDisplay"&gt;11455 Paramount Blvd #E Downey CA, 90241    &lt;a href="http://maps.google.com/maps?q=11455+Paramount+Blvd+%23E+Downey+CA+90241" target="_blank"&gt;google map&lt;/a&gt; | &lt;a href="http://maps.yahoo.com/maps_result?addr=11455%20Paramount%20Blvd%20%23E%20Downey%20CA&amp;amp;country=US&amp;amp;csz=90241" target="_blank"&gt;yahoo map&lt;/a&gt; &lt;/p&gt; &lt;div style="padding-left:2em;"&gt; • Location: Downey, Downtown, Long Beach, Los Angeles, 🌹3🌹HottestAsianYoungGirls🌹NewStudentsIn🌹 &lt;/div&gt; &lt;div style="padding-left:2em;"&gt; • Post ID: 96660487 losangeles&lt;/br&gt;&lt;/div&gt; &lt;div data-oid="96660487" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt; &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=96660487" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>1141</t>
@@ -611,7 +611,7 @@
     <t>Downtown, Hollywood, Los Angeles, North Hollywood, San Fernando, San Fernando Valley</t>
   </si>
   <si>
-    <t>💖💖Hey Guys💖💖    We are closing by the end of the year I'm committed to give you my best ⭐Sweet, Clean, and Discrete 1000% Independent! Real pics or free!  ⭐ &gt;rates &lt;b&gt;190 HOUR and 300 for 1.5 NO HALF HOUR&lt;/b&gt;</t>
+    <t xml:space="preserve">💖💖Hey Guys💖💖    We are closing by the end of the year I'm committed to give you my best ⭐Sweet, Clean, and Discrete 1000% Independent! Real pics or free!  ⭐ &gt;rates  190 HOUR and 300 for 1.5 NO HALF HOUR </t>
   </si>
   <si>
     <t>_______Exotic  LADY 4 BODY RUBS temporarily only    🌙______</t>
@@ -626,7 +626,7 @@
     <t>[u'148776767']</t>
   </si>
   <si>
-    <t xml:space="preserve">  Get relaxation and relief you need.     &lt;b&gt;_______________Relaxing &amp;amp; Soothing Therapeutic Swedish__________________&lt;/b&gt;     - &lt;b&gt;Donation 120/H&lt;/b&gt;  or  - &lt;b&gt;Donation 180/90 minutes&lt;/b&gt;     On my massage table</t>
+    <t xml:space="preserve">  Get relaxation and relief you need.      _______________Relaxing &amp;amp; Soothing Therapeutic Swedish__________________      -  Donation 120/H   or  -  Donation 180/90 minutes      On my massage table</t>
   </si>
   <si>
     <t>▃▃  ▃▃▃ ▃I've Been NAUGHTY &amp; I like it! ▃▃▃▃ WHITE! ▃ ▃ CMT ▃▃ ▃▃ ▃▃▃▃▃▃▃ ▃▃▃▃▃  ▃▃▃▃ ▃▃▃▃</t>
@@ -674,7 +674,7 @@
     <t>5623738699 1013510</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-color:yellow;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/d.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/w.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/y.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;/a&gt; &amp;lt; &lt;p&gt;~*~*~*~*~*Asian Massage ~*~*~*~*~* &lt;p&gt;&lt;font color="red" size="4"&gt;~*~*~*(562)373-8699~*~*~*&lt;/font&gt; &lt;font color="#0099FF" size="4"&gt; &lt;p&gt;open 7days 10:00am-10:00pm&lt;/p&gt;&lt;/font&gt; &lt;font color="#0099FF" size="5"&gt;&lt;u&gt;11455 Paramount Blvd#E Downey CA90241 (Lots Of Parking Cross Street Firestone Blvd )&lt;/u&gt;&lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;p&gt;BigChangeAllNewGirls&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt; EXACTIY &lt;p&gt; What You've Been Looking For Friendly&amp;amp;WeetCuteAsianGirls.Welcome;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt;Swedish * Shiatsu * Deep tissue * 4 Hands *Body oil massage* &lt;hr/&gt;&lt;p&gt;Enjoy Relaxing Bodywork Mongst RelaxingMusic &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;hr/&gt;&lt;p&gt;&lt;font color="purple" size="5"&gt;--**--WarmRoom,BeautifulMusic--**-- &lt;p&gt;~~*~~*~~*~~ $40/30mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*~~*~~ $50/60mins ~~*~~*~~*~~&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt; &lt;hr/&gt;&lt;p&gt;Many different Special NEW Asian Pretty Girls on &lt;p&gt;staff to pamper you!!! &lt;p&gt;let our Professional Therapist relax your Body, Mind &amp;amp;Soul; with &lt;p&gt;our Traditional Chinese Full Body Massage. &lt;p&gt;Give us a try! &lt;p&gt;...Walk-ins, &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="200" src="http://dl.glitter-graphics.net/pub/913/913921fehobutr4y.gif" width="500"/&gt;&lt;/a&gt; &lt;div style="visibility:visible;width:540px;margin:auto;"&gt; &lt;/div&gt; &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/div&gt; &lt;p class="metaInfoDisplay"&gt;11455 Paramount Blvd #E Downey CA, 90241    &lt;a href="http://maps.google.com/maps?q=11455+Paramount+Blvd+%23E+Downey+CA+90241" target="_blank"&gt;google map&lt;/a&gt; | &lt;a href="http://maps.yahoo.com/maps_result?addr=11455%20Paramount%20Blvd%20%23E%20Downey%20CA&amp;amp;country=US&amp;amp;csz=90241" target="_blank"&gt;yahoo map&lt;/a&gt; &lt;/p&gt; &lt;div style="padding-left:2em;"&gt; • Location: Downey, Downtown, Hemet🍏3🍏HottestAsianYoungGirls🍏, Long Beach, Los Angeles &lt;/div&gt; &lt;div style="padding-left:2em;"&gt; • Post ID: 101351042 losangeles&lt;/br&gt;&lt;/div&gt; &lt;div data-oid="101351042" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt; &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=101351042" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; &lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-color:yellow;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/d.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/w.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/y.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;/a&gt; &amp;lt; &lt;p&gt;~*~*~*~*~*Asian Massage ~*~*~*~*~* &lt;p&gt;&lt;font color="red" size="4"&gt;~*~*~*(562)373-8699~*~*~*&lt;/font&gt; &lt;font color="#0099FF" size="4"&gt; &lt;p&gt;open 7days 10:00am-10:00pm&lt;/p&gt;&lt;/font&gt; &lt;font color="#0099FF" size="5"&gt; 11455 Paramount Blvd#E Downey CA90241 (Lots Of Parking Cross Street Firestone Blvd ) &lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;p&gt;BigChangeAllNewGirls&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt; EXACTIY &lt;p&gt; What You've Been Looking For Friendly&amp;amp;WeetCuteAsianGirls.Welcome;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt;Swedish * Shiatsu * Deep tissue * 4 Hands *Body oil massage* &lt;hr/&gt;&lt;p&gt;Enjoy Relaxing Bodywork Mongst RelaxingMusic &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;hr/&gt;&lt;p&gt;&lt;font color="purple" size="5"&gt;--**--WarmRoom,BeautifulMusic--**-- &lt;p&gt;~~*~~*~~*~~ $40/30mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*~~*~~ $50/60mins ~~*~~*~~*~~&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt; &lt;hr/&gt;&lt;p&gt;Many different Special NEW Asian Pretty Girls on &lt;p&gt;staff to pamper you!!! &lt;p&gt;let our Professional Therapist relax your Body, Mind &amp;amp;Soul; with &lt;p&gt;our Traditional Chinese Full Body Massage. &lt;p&gt;Give us a try! &lt;p&gt;...Walk-ins, &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="200" src="http://dl.glitter-graphics.net/pub/913/913921fehobutr4y.gif" width="500"/&gt;&lt;/a&gt; &lt;div style="visibility:visible;width:540px;margin:auto;"&gt; &lt;/div&gt; &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/div&gt; &lt;p class="metaInfoDisplay"&gt;11455 Paramount Blvd #E Downey CA, 90241    &lt;a href="http://maps.google.com/maps?q=11455+Paramount+Blvd+%23E+Downey+CA+90241" target="_blank"&gt;google map&lt;/a&gt; | &lt;a href="http://maps.yahoo.com/maps_result?addr=11455%20Paramount%20Blvd%20%23E%20Downey%20CA&amp;amp;country=US&amp;amp;csz=90241" target="_blank"&gt;yahoo map&lt;/a&gt; &lt;/p&gt; &lt;div style="padding-left:2em;"&gt; • Location: Downey, Downtown, Hemet🍏3🍏HottestAsianYoungGirls🍏, Long Beach, Los Angeles &lt;/div&gt; &lt;div style="padding-left:2em;"&gt; • Post ID: 101351042 losangeles&lt;/br&gt;&lt;/div&gt; &lt;div data-oid="101351042" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt; &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=101351042" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>🎁🎁🎁🎁🎁🎁3🌹Fantasy Girls🌹💟💟💟💟💟💟💟Friendly Smile🌸✳️✳️✳️✳️Quality Service🌷Beautiful Students!BothNewIn -</t>
@@ -716,7 +716,7 @@
     <t>3236548785</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;u&gt;&lt;/u&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;u&gt;&lt;/u&gt; &lt;h4 align="justify"&gt; &lt;span style="color: blue ;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;~❤ Welcome To Wellness❤~ Discover Your Escape From Strife❤~ Start Your Healing ❤~ Find Your Time of Bliss❤~ Our Staff of Thoughtful Professional Therapists Waiting to Enchant You With Her Magic Touch❤~ We Have Youthful Friendly Staff for Your Recovery❤~ Our Asian Ladies Are Expertly Trained in the Finer Arts of Massage Therapy❤~ All Nice Licensed, Knowledgeable Experienced Asian Healers Here To Guide You to Escape From Your Rigorous Day❤~ She Treats You Right From Tension Strained Start to Smiling Refreshed Finish❤~ &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt;  &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;u&gt;&lt;/u&gt; &lt;b&gt;&lt;/b&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤❤ H2O MASSAGE❤❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt; &lt;/h1&gt; &lt;h4 style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;HOURS OF OPERATION&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt; &lt;font color="red"&gt; &lt;span style="color:rgb(255,0,0);"&gt; &lt;/span&gt; &lt;h1 style="color:black;text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt; &lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;Open Monday thru  &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="color:rgb(255,0,0);font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;Sunday&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt; 10:00 AM To 10:00 PM&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size:24px;line-height:1.5;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;      &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h3&gt; &lt;/font&gt;&lt;font color="red"&gt; &lt;/font&gt;&lt;font color="red"&gt; &lt;h3 style="color:black;text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font color="red"&gt;Call Her ❤323-654-8785❤ Call Her  &lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;span style="font-size:24px;"&gt;&lt;span style="line-height:normal;"&gt;$40/30 Minute ❤OR❤ $50/60 Minutes&lt;/span&gt;&lt;/span&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/p&gt; &lt;/font&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;a&gt;&lt;u&gt;❤ H2O MASSAGE ❤ 1011 N Fairfax Ave. ❤ West Hollywood, CA 90046&lt;/u&gt;&lt;/a&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;u&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-size:xx-large;line-height:normal;vertical-align:baseline;color:rgb(0,128,0);"&gt;&lt;font color="red" size="6"&gt;&lt;/font&gt;&lt;font color="blue" size="5"&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-family:inherit;font-size:inherit;font-variant:inherit;line-height:inherit;vertical-align:baseline;"&gt;&lt;span&gt;&lt;span style="color:rgb(0,0,255);"&gt;~❤~ ❤ Clean ❤ Comfortable ❤ Private Rooms.  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;❤ Swedish ❤ Deep Tissue ❤ Walking Style  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;&lt;span style="line-height:normal;"&gt;❤ Blissful ❤ Relaxing Massage ~❤~ ❤Hot Shower or Table Shower Available ❤ Rotating Staff And Visiting Therapists For A New Encounter In Your Treatment ❤ ❤ YOUR Best Massage ❤&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;/span&gt;&lt;/span&gt; &lt;/i&gt;&lt;/font&gt;&lt;/i&gt; &lt;/u&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/p&gt; &lt;/span&gt;&lt;/h1&gt;</t>
+    <t xml:space="preserve">             &lt;h4 align="justify"&gt; &lt;span style="color: blue ;"&gt;      &lt;font face="Impact" size="+2"&gt;~❤ Welcome To Wellness❤~ Discover Your Escape From Strife❤~ Start Your Healing ❤~ Find Your Time of Bliss❤~ Our Staff of Thoughtful Professional Therapists Waiting to Enchant You With Her Magic Touch❤~ We Have Youthful Friendly Staff for Your Recovery❤~ Our Asian Ladies Are Expertly Trained in the Finer Arts of Massage Therapy❤~ All Nice Licensed, Knowledgeable Experienced Asian Healers Here To Guide You to Escape From Your Rigorous Day❤~ She Treats You Right From Tension Strained Start to Smiling Refreshed Finish❤~ &lt;/font&gt;      &lt;/span&gt;&lt;/h4&gt;              &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤❤ H2O MASSAGE❤❤❤    &lt;/span&gt; &lt;/h1&gt; &lt;h4 style="text-align:center;"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;color:black;text-align:center;"&gt;    &lt;font color="red"&gt;HOURS OF OPERATION&lt;/font&gt;     &lt;/span&gt;&lt;/h4&gt; &lt;font color="red"&gt; &lt;span style="color:rgb(255,0,0);"&gt; &lt;/span&gt; &lt;h1 style="color:black;text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt; &lt;b style="font-size:24px;"&gt;    Open Monday thru       &lt;/span&gt;&lt;b style="color:rgb(255,0,0);font-size:24px;"&gt;     &lt;font color="red"&gt;Sunday&lt;/font&gt;      &lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;     &lt;font color="red"&gt; 10:00 AM To 10:00 PM&lt;/font&gt;     &lt;/span&gt;&lt;b style="font-size:24px;line-height:1.5;"&gt;    &lt;font color="red"&gt;      &lt;/font&gt;     &lt;/h3&gt; &lt;/font&gt;&lt;font color="red"&gt; &lt;/font&gt;&lt;font color="red"&gt; &lt;h3 style="color:black;text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;          &lt;/span&gt;&lt;b style="font-size:24px;"&gt;    &lt;font color="red"&gt;Call Her ❤323-654-8785❤ Call Her  &lt;/font&gt;     &lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="color:rgb(255,0,0);"&gt;&lt;b style="font-size:24px;"&gt;    &lt;span style="font-size:24px;"&gt;&lt;span style="line-height:normal;"&gt;$40/30 Minute ❤OR❤ $50/60 Minutes&lt;/span&gt;&lt;/span&gt;      &lt;/span&gt;&lt;/p&gt; &lt;/font&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;      &lt;a&gt; ❤ H2O MASSAGE ❤ 1011 N Fairfax Ave. ❤ West Hollywood, CA 90046 &lt;/a&gt;     &lt;/span&gt;&lt;/h3&gt; &lt;p style="text-align:center;"&gt;&lt;span style="font-size:24px;"&gt;      &lt;i style="margin:0px;padding:0px;border:0px;font-size:xx-large;line-height:normal;vertical-align:baseline;color:rgb(0,128,0);"&gt;&lt;font color="red" size="6"&gt;&lt;/font&gt;&lt;font color="blue" size="5"&gt;&lt;i style="margin:0px;padding:0px;border:0px;font-family:inherit;font-size:inherit;font-variant:inherit;line-height:inherit;vertical-align:baseline;"&gt;&lt;span&gt;&lt;span style="color:rgb(0,0,255);"&gt;~❤~ ❤ Clean ❤ Comfortable ❤ Private Rooms.  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;❤ Swedish ❤ Deep Tissue ❤ Walking Style  &lt;/span&gt;&lt;span style="color:rgb(0,0,255);line-height:normal;"&gt;&lt;span&gt;&lt;span style="line-height:normal;"&gt;❤ Blissful ❤ Relaxing Massage ~❤~ ❤Hot Shower or Table Shower Available ❤ Rotating Staff And Visiting Therapists For A New Encounter In Your Treatment ❤ ❤ YOUR Best Massage ❤&lt;/span&gt;&lt;/span&gt;&lt;/span&gt; &lt;/span&gt;&lt;/span&gt;  &lt;/font&gt;        &lt;/span&gt;&lt;/p&gt; &lt;/span&gt;&lt;/h1&gt;</t>
   </si>
   <si>
     <t>💞Healthy Healing💞 Massage Therapy💝 Trim Youthful Happy Asian Girls💖Relaxing Recovery</t>
@@ -755,7 +755,7 @@
     <t>3235264977 0336832 1181700694 2525231 8072087 9534577 0336699 1181678329</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt; SAT SUN SPECIAL $40 for half hour &lt;a&gt;▬🎾 EASTERN Therapy ———(All Updated) 🎾▬ &lt;/a&gt;&lt;/b&gt;   🔶 Visit Us today and Experience a Truly Amazing LATINA AND ORIENTAL Relaxation   🔶 We invite you to come, meet our talented   🔶 &lt;a&gt;NEW&lt;/a&gt; WHITE,ORIENTAL And LATINA staff, and discover your favorite Space !   🔶 Deep Body RUB "    &lt;b&gt;&lt;a&gt;💟————TEL: 323-526-4977&lt;/a&gt; 🔶 Open Daily 9:30am To 8:30pm &lt;u&gt;🔴 &lt;a&gt; 4545 E 3rd St #109 Los Angeles CA 90022 &lt;/a&gt;🔴 Across King Taco LOCAL AND INTERNATIONAL STAFF &lt;a href="https://www.google.com/maps/place/Highland+Massage+Therapy/@34.0336832,-118.1700694,17z/data=!4m8!1m2!2m1!1s4545+E+3rd+St+%252523109+Los+Angeles+CA+90022!3m4!1s0x80c2cf70f8072087:0x284f95345774fe0f!8m2!3d34.0336699!4d-118.1678329" target="_blank"&gt; ▬(Free Parking) Map…CLICK ▬&lt;/a&gt; &lt;/u&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">   SAT SUN SPECIAL $40 for half hour &lt;a&gt;▬🎾 EASTERN Therapy ———(All Updated) 🎾▬ &lt;/a&gt;    🔶 Visit Us today and Experience a Truly Amazing LATINA AND ORIENTAL Relaxation   🔶 We invite you to come, meet our talented   🔶 &lt;a&gt;NEW&lt;/a&gt; WHITE,ORIENTAL And LATINA staff, and discover your favorite Space !   🔶 Deep Body RUB "     &lt;a&gt;💟————TEL: 323-526-4977&lt;/a&gt; 🔶 Open Daily 9:30am To 8:30pm  🔴 &lt;a&gt; 4545 E 3rd St #109 Los Angeles CA 90022 &lt;/a&gt;🔴 Across King Taco LOCAL AND INTERNATIONAL STAFF &lt;a href="https://www.google.com/maps/place/Highland+Massage+Therapy/@34.0336832,-118.1700694,17z/data=!4m8!1m2!2m1!1s4545+E+3rd+St+%252523109+Los+Angeles+CA+90022!3m4!1s0x80c2cf70f8072087:0x284f95345774fe0f!8m2!3d34.0336699!4d-118.1678329" target="_blank"&gt; ▬(Free Parking) Map…CLICK ▬&lt;/a&gt;   </t>
   </si>
   <si>
     <t>💖💖 NEW 💖💖🍒 NEW 💖💖Young Staff💖💖 Enjoy Special rate 💖💖 Sun Sat Open with special $40 / 30</t>
@@ -794,7 +794,7 @@
     <t>Los Angeles, Westside</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;font color="red" size="6"&gt;&lt;i&gt;&lt;center&gt;♥♥ ---------NEW MANAGEMENT---------♥ ♥ &lt;p&gt; ☜❤☞Try An Asian Massage&lt;/p&gt;&lt;/center&gt;&lt;/i&gt;&lt;/font&gt;</t>
+    <t xml:space="preserve"> &lt;font color="red" size="6"&gt; &lt;center&gt;♥♥ ---------NEW MANAGEMENT---------♥ ♥ &lt;p&gt; ☜❤☞Try An Asian Massage&lt;/p&gt;&lt;/center&gt; &lt;/font&gt;</t>
   </si>
   <si>
     <t>@&amp;@&amp;@Grand Opening Asian Massage$@$@$@</t>
@@ -899,7 +899,7 @@
     <t>Los Angeles, Santa Monica, Santa Monica Venice Marina Del Rey</t>
   </si>
   <si>
-    <t xml:space="preserve">I know what a distinguished gentleman is looking for. You have my personal assurance of absolute discretion, and you will enjoy great companionship, engaging conversation, and truly memorable experiences CMT Massage    My personality best described as easy going, honest and non-pretentious, but my best trait is my sense of humor I seem to find humor in almost everything.I am a classy bubbly down to earth girl.424-two-five-nine-three-one-one-eight &lt;b&gt;Do not text! ADVANCE APPOINTS ONLY Only call when you are available to speak directly- Thanks! &lt;/b&gt;  10am to 9:30 pm  Perfect for the married gents who want a little visual fun and relaxation without feeling guilty &lt;i&gt;&lt;/i&gt; </t>
+    <t xml:space="preserve">I know what a distinguished gentleman is looking for. You have my personal assurance of absolute discretion, and you will enjoy great companionship, engaging conversation, and truly memorable experiences CMT Massage    My personality best described as easy going, honest and non-pretentious, but my best trait is my sense of humor I seem to find humor in almost everything.I am a classy bubbly down to earth girl.424-two-five-nine-three-one-one-eight  Do not text! ADVANCE APPOINTS ONLY Only call when you are available to speak directly- Thanks!    10am to 9:30 pm  Perfect for the married gents who want a little visual fun and relaxation without feeling guilty    </t>
   </si>
   <si>
     <t>CLASSY BRUNETTE(((( Curvy Playful )))) Incall Easy Breezy Parking</t>
@@ -1022,7 +1022,7 @@
     <t>3108761663</t>
   </si>
   <si>
-    <t>Magic Hands. &lt;b&gt; Mature&lt;/b&gt; Busty Tall Blonde. Soothing, nuturing, great releasing massage. Private, safe, clean location, w/shower available.     &lt;b&gt;Call Savonna @ 310.876.1663&lt;/b&gt;    Available 10am til 7pm    No TEXTING NO EMAiIS</t>
+    <t>Magic Hands.   Mature  Busty Tall Blonde. Soothing, nuturing, great releasing massage. Private, safe, clean location, w/shower available.      Call Savonna @ 310.876.1663     Available 10am til 7pm    No TEXTING NO EMAiIS</t>
   </si>
   <si>
     <t>1005</t>
@@ -1091,7 +1091,7 @@
     <t>Los Angeles, West LA - Private Address, Westside</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;i&gt;&lt;b&gt;Get in touch today : ) &lt;a href="mailto:softtouchla@gmail.com" target="_blank"&gt;softtouchla@gmail.com&lt;/a&gt; The Sofia Experience:&lt;/b&gt; 200 massage 250 massage + a little surprise ;-) 300 massage + a big surprise ;-) Age: 29 Height: 5'2" Weight: 120 lbs Description: Latina Hair: Long Brunette With Soft Pouty Lips ;-) &lt;b&gt; Important: Please send a proper introduction; complete sentences excite me lol!&lt;/b&gt; *Initial contact via email* Sweet kisses, Sofia **Mature clientele (65+) are welcome ;-)) **Disability-friendly: Just let me know your current condition upon booking, so I can ensure the most enjoyable experience for you ;-)) **I have a naturally giving nature with a warm, understanding tender touch. &lt;/i&gt;</t>
+    <t xml:space="preserve">   Get in touch today : ) &lt;a href="mailto:softtouchla@gmail.com" target="_blank"&gt;softtouchla@gmail.com&lt;/a&gt; The Sofia Experience:  200 massage 250 massage + a little surprise ;-) 300 massage + a big surprise ;-) Age: 29 Height: 5'2" Weight: 120 lbs Description: Latina Hair: Long Brunette With Soft Pouty Lips ;-)   Important: Please send a proper introduction; complete sentences excite me lol!  *Initial contact via email* Sweet kisses, Sofia **Mature clientele (65+) are welcome ;-)) **Disability-friendly: Just let me know your current condition upon booking, so I can ensure the most enjoyable experience for you ;-)) **I have a naturally giving nature with a warm, understanding tender touch.  </t>
   </si>
   <si>
     <t>Sweet and Petite Private Massage - Sofia</t>
@@ -1106,7 +1106,7 @@
     <t>2356 S Robertson blvd ,los Angeles, Los Angeles, Westside</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; &lt;b&gt;&lt;/b&gt; I offer a full body personalized unique touch with relaxing body work techniques for both men and women in a clean, quiet relaxing environment with relaxing music, soft lights and very comfortable massage table with extra padding....... &lt;b&gt;&lt;/b&gt; </t>
+    <t xml:space="preserve">                                                                         I offer a full body personalized unique touch with relaxing body work techniques for both men and women in a clean, quiet relaxing environment with relaxing music, soft lights and very comfortable massage table with extra padding.......    </t>
   </si>
   <si>
     <t>MASSAGE RELAXATION *****310-838-2188*****</t>
@@ -1172,7 +1172,7 @@
     <t>2133651518 1183099 1183100</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;a&gt; 🍎==* APPLE SPA *==🍎 🌻 SPECIAL PRICE 🌻 🌹 Relax Your Body And Mind With A Rejuvenating 🌹 Asian Oriental Deep Tissue Swedish Shiatsu &lt;/a&gt; 🌹 BEAUTIFUL ASIAN STAFF 🔲 Please Call Now —————— &lt;a&gt;213-365-1518 —🔲 &lt;/a&gt; 🌹 Open 11AM TO 11PM 🔲 3824 Wilshire Blvd Los Angeles, CA 90010 &lt;a href="https://maps.google.com/maps?q=+3824+Wilshire+Blvd+Los+Angeles,+CA+90010+%E2%80%8E+&amp;amp;hl=en&amp;amp;ie=UTF8&amp;amp;ll=34.061548,-118.309965&amp;amp;spn=0.046503,0.090895&amp;amp;sll=34.06169,-118.31003&amp;amp;sspn=0.005848,0.011362&amp;amp;hnear=3824+Wilshire+Blvd,+Los+Angeles,+California+90010&amp;amp;t=m&amp;amp;z=14" target="_blank"&gt;🔲—— GET MAP ——🔲&lt;/a&gt; &lt;/b&gt;</t>
+    <t xml:space="preserve">  &lt;a&gt; 🍎==* APPLE SPA *==🍎 🌻 SPECIAL PRICE 🌻 🌹 Relax Your Body And Mind With A Rejuvenating 🌹 Asian Oriental Deep Tissue Swedish Shiatsu &lt;/a&gt; 🌹 BEAUTIFUL ASIAN STAFF 🔲 Please Call Now —————— &lt;a&gt;213-365-1518 —🔲 &lt;/a&gt; 🌹 Open 11AM TO 11PM 🔲 3824 Wilshire Blvd Los Angeles, CA 90010 &lt;a href="https://maps.google.com/maps?q=+3824+Wilshire+Blvd+Los+Angeles,+CA+90010+%E2%80%8E+&amp;amp;hl=en&amp;amp;ie=UTF8&amp;amp;ll=34.061548,-118.309965&amp;amp;spn=0.046503,0.090895&amp;amp;sll=34.06169,-118.31003&amp;amp;sspn=0.005848,0.011362&amp;amp;hnear=3824+Wilshire+Blvd,+Los+Angeles,+California+90010&amp;amp;t=m&amp;amp;z=14" target="_blank"&gt;🔲—— GET MAP ——🔲&lt;/a&gt;  </t>
   </si>
   <si>
     <t>🍎🍎🍎✿Amazing ✿ Korean ✿▃▃▃▃▃▃▃▃▃▃▃▃✿ Japanese ✿▃▃▃▃▃▃▃▃▃▃▃▃✿Sweet NICE Girls ✿▃▃▃▃▃▃▃▃▃▃▃▃ 🍎🍎🍎</t>
@@ -1202,7 +1202,7 @@
     <t>Hollywood, Hollywood, Downtown , Korea Town, Los Angeles</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt; &lt;b&gt;&lt;font color="purple"&gt;&lt;font size="4"&gt;"You won't believe till you are experienced it!" We are providing M4M Massage by our good looking masseurs who also have the high skill in Thai massage. We have trained M4M massage from Thailand. Our place is like an oasis in the middle of a bustling metropolis: the perfect place to relax and recharge your body from the chaos of daily living. Let us nourish your body and soul with a good service, privacy, and nice massage rooms. Come stressed. Leave relaxed. Our guys will massage your all worries and stresses away PLEASE KINDLY CONTACT ☎️ 323.462.4214 &lt;i&gt;We welcome a diverse group of clients; regardless of age, race, or body size.&lt;/i&gt; &lt;font color="blue" size="4"&gt; Professional M4M Massage Thai Massage, Swedish, Combination, Deep Tissue, Body Scrub, and 4 Hands Massage Free Shower and Full Hour Service, Parking lot, and Accepted Credit Card&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/b&gt;&lt;/center&gt; </t>
+    <t xml:space="preserve"> &lt;center&gt;  &lt;font color="purple"&gt;&lt;font size="4"&gt;"You won't believe till you are experienced it!" We are providing M4M Massage by our good looking masseurs who also have the high skill in Thai massage. We have trained M4M massage from Thailand. Our place is like an oasis in the middle of a bustling metropolis: the perfect place to relax and recharge your body from the chaos of daily living. Let us nourish your body and soul with a good service, privacy, and nice massage rooms. Come stressed. Leave relaxed. Our guys will massage your all worries and stresses away PLEASE KINDLY CONTACT ☎️ 323.462.4214  We welcome a diverse group of clients; regardless of age, race, or body size.  &lt;font color="blue" size="4"&gt; Professional M4M Massage Thai Massage, Swedish, Combination, Deep Tissue, Body Scrub, and 4 Hands Massage Free Shower and Full Hour Service, Parking lot, and Accepted Credit Card&lt;/font&gt;&lt;/font&gt;&lt;/font&gt; &lt;/center&gt; </t>
   </si>
   <si>
     <t>♠️ Highly recommended !!! ♠️ ♠️ M4M  MASSAGE PLACE ♠️ ♠️ Gen't Spa♠️</t>
@@ -1304,7 +1304,7 @@
     <t>3238720338</t>
   </si>
   <si>
-    <t xml:space="preserve">🎲 Open Minded Play 🎲     &lt;u&gt;Guaranteed worth your while!&lt;/u&gt; Very Classy, Very Pretty, &lt;b&gt;COCO DELIGHT&lt;/b&gt; ,5'9,Athletic Curves, &lt;b&gt;REAL 36DDDs&lt;/b&gt; ,small waist, Sexy toned Ass, and Endless Legs!!!    ℳidas Touch body2body deepbodysliding Supreme Swedish technique by a Sexy &lt;b&gt;CERTIFIED and INDPENDENT &lt;/b&gt; Afro-Cubana. &lt;b&gt;DISCREET SEDUCTRESS&lt;/b&gt; 💋 ★★★★★ Massage Experience 👌👌    I live up to my ad (pics me and recent💋)! I know EXACTLY how to give you what you need!      upscale only/GENTLEMEN 35+  ☎ &lt;u&gt;CALL&lt;/u&gt; Sonny🌴 &lt;b&gt;323-872-0338&lt;/b&gt;   &lt;u&gt;&lt;/u&gt; </t>
+    <t xml:space="preserve">🎲 Open Minded Play 🎲      Guaranteed worth your while!  Very Classy, Very Pretty,  COCO DELIGHT  ,5'9,Athletic Curves,  REAL 36DDDs  ,small waist, Sexy toned Ass, and Endless Legs!!!    ℳidas Touch body2body deepbodysliding Supreme Swedish technique by a Sexy  CERTIFIED and INDPENDENT   Afro-Cubana.  DISCREET SEDUCTRESS  💋 ★★★★★ Massage Experience 👌👌    I live up to my ad (pics me and recent💋)! I know EXACTLY how to give you what you need!      upscale only/GENTLEMEN 35+  ☎  CALL  Sonny🌴  323-872-0338       </t>
   </si>
   <si>
     <t>I L❤VE CREAM💦 In ℳY ☕Coffee☕...⚠ H⛔T &amp; Steamy Nude k😸tty Cat ⚠ Real Sexy DDD lic.Massuese</t>
@@ -1346,7 +1346,7 @@
     <t>1104243970</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;❤❤❤ H2O MASSAGE ❤❤❤&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td width="90%"&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;💝Fix Monday Blues💝 Rejuvenate The Week With Relaxing Therapy 💖Discover Your Zone Of Comfort From The Storm Of Daily Stress 🏆Triumph Over Tension🏆 ❤ Good Health Waits For You ❤~ Find Lovely And Professional Asian Girls Helping You Heal ❤~ New or Visiting/Re-Visiting Therapists Are Arriving To Welcome YOU To Your Refuge From Worry And Strife❤~ You Will Find A Youthful Expert Experienced And Caring Lady ~❤ Find Pampered Treatment With Her Magic Touch ❤~ Exquisite Ladies Trained in the Arts of Massage and Stress Treatment ❤ Caring Girls Who Never Rush Your Service Wait For You ❤~ She Cares For You Right from Stressed Out Start to Smiling Finish ❤~&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h4&gt; &lt;h4 style="text-align: center; "&gt; &lt;span style="color:rgb(255,0,0);"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;font face="Impact" size="+2"&gt;&lt;/font&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;b style="font-size: 24px; color: black; text-align: center; "&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;HOURS OF OPERATION&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h4&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;/span&gt;&lt;b style="font-size: 24px; "&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;Open Monday thru Thursday&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; 10:00 AM To 10:00 PM &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/span&gt;&lt;/h3&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;u&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/u&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td&gt; &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td width="20%"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;h1 style="text-align:center;"&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;center&gt; &lt;p&gt;  &lt;/p&gt; &lt;/center&gt; &lt;h1&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="60%"&gt; &lt;p&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;&lt;big&gt;We offer:&lt;/big&gt; &lt;/big&gt; &lt;/big&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;ul&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Walking Massage&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Shiatsu&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Unscented Oil&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Relaxation Therapy&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Soft Touch&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Swedish&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Chinese Acupressure&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Deep Tissue&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Table Shower Available&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Hot Shower Available&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Climate Controlled Comfort&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;li&gt; &lt;b&gt;&lt;b&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;big&gt;&lt;big&gt;Youthful Asian Ladies To Treat You&lt;/big&gt;&lt;/big&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/li&gt; &lt;/ul&gt; &lt;/td&gt; &lt;td width="40%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;td width="90%"&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;a href="https://maps.google.com/maps?q=1011+N+Fairfax+Ave.2764; +764;West+Hollywood,+CA+90046&amp;amp;ie=UTF-8&amp;amp;ei=17mVUu3bAsz4oASUioIg&amp;amp;ved=0CAgQ_AUoAg" target="_blank"&gt;&lt;img height="85" src="http://img03.taobaocdn.com/imgextra/i3/1104243970/T2RkXQXDhXXXXXXXXX_!!1104243970.png" style="float:none;margin-top:0px;margin-right:0px;margin-bottom:0px;margin-left:0px;" width="850"/&gt;&lt;/a&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; Walk-ins Are Always Welcome. But, You Will Desire To Have Your Favorite Lady Ready And Waiting To Renew Your Treatment ❤ Call Ahead And You Can Check On The Schedule Of the New/Visiting Therapist Also.&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/p&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="5%"&gt; &lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt;&lt;b&gt; &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/b&gt;&lt;/td&gt; &lt;/tr&gt; &lt;/table&gt;  &lt;p&gt;  &lt;/p&gt;   Park in Front or 1 Hour Free Parking Behind Our Building  </t>
+    <t xml:space="preserve"> &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="color:rgb(255,0,255);"&gt;    ❤❤❤ H2O MASSAGE ❤❤❤    &lt;/span&gt;&lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;          &lt;/td&gt; &lt;td width="90%"&gt; &lt;h4 align="justify"&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;💝Fix Monday Blues💝 Rejuvenate The Week With Relaxing Therapy 💖Discover Your Zone Of Comfort From The Storm Of Daily Stress 🏆Triumph Over Tension🏆 ❤ Good Health Waits For You ❤~ Find Lovely And Professional Asian Girls Helping You Heal ❤~ New or Visiting/Re-Visiting Therapists Are Arriving To Welcome YOU To Your Refuge From Worry And Strife❤~ You Will Find A Youthful Expert Experienced And Caring Lady ~❤ Find Pampered Treatment With Her Magic Touch ❤~ Exquisite Ladies Trained in the Arts of Massage and Stress Treatment ❤ Caring Girls Who Never Rush Your Service Wait For You ❤~ She Cares For You Right from Stressed Out Start to Smiling Finish ❤~&lt;/font&gt;      &lt;/span&gt;&lt;/h4&gt; &lt;h4 style="text-align: center; "&gt; &lt;span style="color:rgb(255,0,0);"&gt;      &lt;font face="Impact" size="+2"&gt;&lt;/font&gt;      &lt;/span&gt;&lt;b style="font-size: 24px; color: black; text-align: center; "&gt;    HOURS OF OPERATION     &lt;/h4&gt; &lt;h1 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;&lt;/span&gt;&lt;b style="font-size: 24px; "&gt;    Open Monday thru Thursday     &lt;/h1&gt; &lt;h3 style="color:black;text-align:center;"&gt; &lt;span style="font-size:24px;"&gt;      10:00 AM To 10:00 PM      &lt;/span&gt;&lt;/h3&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;          &lt;/td&gt; &lt;td&gt; &lt;table align="center" border="0"&gt; &lt;tr&gt; &lt;td width="20%"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;h1 style="text-align:center;"&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt;     &lt;img src="http://img04.taobaocdn.com/imgextra/i4/1104243970/T24sdUXDVXXXXXXXXX_!!1104243970.jpeg"/&gt;    &lt;/p&gt; &lt;center&gt; &lt;p&gt;  &lt;/p&gt; &lt;/center&gt; &lt;h1&gt; &lt;span style="font-size:14px;line-height:21px;"&gt;&lt;/span&gt;&lt;/h1&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="60%"&gt; &lt;p&gt;      &lt;big&gt;&lt;big&gt;&lt;big&gt;We offer:&lt;/big&gt; &lt;/big&gt; &lt;/big&gt;      &lt;/p&gt; &lt;ul&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Walking Massage&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Shiatsu&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Unscented Oil&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Relaxation Therapy&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Soft Touch&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Swedish&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Chinese Acupressure&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Deep Tissue&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;      &lt;big&gt;&lt;big&gt;Table Shower Available&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Hot Shower Available&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Climate Controlled Comfort&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;li&gt;       &lt;big&gt;&lt;big&gt;Youthful Asian Ladies To Treat You&lt;/big&gt;&lt;/big&gt;     &lt;/li&gt; &lt;/ul&gt; &lt;/td&gt; &lt;td width="40%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td colspan="3"&gt; &lt;h1 style="color:black;text-align:center;"&gt;  &lt;/h1&gt; &lt;/td&gt; &lt;/tr&gt; &lt;tr&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;td width="90%"&gt; &lt;center&gt; &lt;p style="text-align:center;"&gt;      &lt;a href="https://maps.google.com/maps?q=1011+N+Fairfax+Ave.2764; +764;West+Hollywood,+CA+90046&amp;amp;ie=UTF-8&amp;amp;ei=17mVUu3bAsz4oASUioIg&amp;amp;ved=0CAgQ_AUoAg" target="_blank"&gt;&lt;img height="85" src="http://img03.taobaocdn.com/imgextra/i3/1104243970/T2RkXQXDhXXXXXXXXX_!!1104243970.png" style="float:none;margin-top:0px;margin-right:0px;margin-bottom:0px;margin-left:0px;" width="850"/&gt;&lt;/a&gt;           Walk-ins Are Always Welcome. But, You Will Desire To Have Your Favorite Lady Ready And Waiting To Renew Your Treatment ❤ Call Ahead And You Can Check On The Schedule Of the New/Visiting Therapist Also.     &lt;/p&gt; &lt;/center&gt; &lt;/td&gt; &lt;td width="5%"&gt;            &lt;/td&gt; &lt;/tr&gt; &lt;/table&gt;  &lt;p&gt;  &lt;/p&gt;   Park in Front or 1 Hour Free Parking Behind Our Building  </t>
   </si>
   <si>
     <t>💞Manage Monday Stress💞🌸💞Tension Therapy Massage💆 Youthful Happy Asian Girls 💝Renew Life💝</t>
@@ -1361,7 +1361,7 @@
     <t>3103289777</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;&lt;center&gt;&lt;font color="red"&gt;&lt;font size="5"&gt;★★★★★ Energy Massage★★★★★&lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="4"&gt;💖💖💖 NEW GIRLS COME ON 9/25 &lt;font size="4"&gt;Elegant and Comfortable Facilities 💖💖💖&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="purple"&gt;† Luxury Spa † Best Value † Shower †&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="red"&gt;310-328-9777 &lt;font size="4"&gt;💖💖💖 Every customer leaves happy!!💖💖💖 &lt;/font&gt; &lt;font color="purple"&gt;&lt;font size="4"&gt;∫ Renew Your Day ∫ Refresh Your Spirit ∫&lt;/font&gt; &lt;font color="green"&gt;&lt;font size="4"&gt;1880 W. Carson St. #F Torrance, CA 90501 &lt;font size="4"&gt;you can enjoy your time &lt;font size="4"&gt;Open Everyday 10am-10pm &lt;font color="red"&gt;&lt;font size="4"&gt;Call Today &lt;big&gt;&lt;font size="5"&gt;310-328-9777&lt;/font&gt; &lt;/big&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;&lt;/b&gt;  &lt;font color="fuchsia"&gt;&lt;font size="5"&gt;Walk In is welcome, reservation is more than welcome. &lt;/font&gt; &lt;/font&gt;</t>
+    <t xml:space="preserve">  &lt;center&gt;&lt;font color="red"&gt;&lt;font size="5"&gt;★★★★★ Energy Massage★★★★★&lt;/font&gt; &lt;font color="blue"&gt;&lt;font size="4"&gt;💖💖💖 NEW GIRLS COME ON 9/25 &lt;font size="4"&gt;Elegant and Comfortable Facilities 💖💖💖&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="purple"&gt;† Luxury Spa † Best Value † Shower †&lt;/font&gt; &lt;font size="4"&gt;&lt;font color="red"&gt;310-328-9777 &lt;font size="4"&gt;💖💖💖 Every customer leaves happy!!💖💖💖 &lt;/font&gt; &lt;font color="purple"&gt;&lt;font size="4"&gt;∫ Renew Your Day ∫ Refresh Your Spirit ∫&lt;/font&gt; &lt;font color="green"&gt;&lt;font size="4"&gt;1880 W. Carson St. #F Torrance, CA 90501 &lt;font size="4"&gt;you can enjoy your time &lt;font size="4"&gt;Open Everyday 10am-10pm &lt;font color="red"&gt;&lt;font size="4"&gt;Call Today &lt;big&gt;&lt;font size="5"&gt;310-328-9777&lt;/font&gt; &lt;/big&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/font&gt;&lt;/center&gt;   &lt;font color="fuchsia"&gt;&lt;font size="5"&gt;Walk In is welcome, reservation is more than welcome. &lt;/font&gt; &lt;/font&gt;</t>
   </si>
   <si>
     <t>💋💖💋💖💋NEW!NEW!💋💗💋💗100%HOT HOT 💋💗💋💗100%nice &amp; pretty💋💗💋💗FULL BUDDY💗💋💋310-328-9777</t>
@@ -1385,7 +1385,7 @@
     <t>Hollywood, Los Angeles, North Hollywood, San Fernando, San Fernando Valley, Ventura</t>
   </si>
   <si>
-    <t xml:space="preserve">I have to say sorry to all my customers. Our store closed for a while ago. Becoz we r apply for some permit. RITE NOW. WE GOT EVERYTHING APPROVED. WE R OPEN NOW. SO. WHEN UR BODY HAVR SOME PROBLEM. STREE. AFTER BUSY WORK IN YOUR WONDERFUL LIFT. COME BACK HERE. WE FIX YOUR PROBLEM ! Therapeutic Massage Therapy  Alleviate the pain on your  Shoulders, Neck, Lower Back    Open:9:30AM--11:00PM &lt;b&gt;8189858999&lt;/b&gt;   </t>
+    <t xml:space="preserve">I have to say sorry to all my customers. Our store closed for a while ago. Becoz we r apply for some permit. RITE NOW. WE GOT EVERYTHING APPROVED. WE R OPEN NOW. SO. WHEN UR BODY HAVR SOME PROBLEM. STREE. AFTER BUSY WORK IN YOUR WONDERFUL LIFT. COME BACK HERE. WE FIX YOUR PROBLEM ! Therapeutic Massage Therapy  Alleviate the pain on your  Shoulders, Neck, Lower Back    Open:9:30AM--11:00PM  8189858999    </t>
   </si>
   <si>
     <t>❎❎❎❎❎❎❎❎❎ WE R OPEN NOW ❎❎❎❎❎❎ State of ❎❎❎ Supreme Relaxation ❎❎❎❎❎❎❎❎❎❎❎❎ NEW STAFF ❎❎❎❎❎❎❎❎❎</t>
@@ -1400,7 +1400,7 @@
     <t>3108630228</t>
   </si>
   <si>
-    <t>💖💖Hi 💖💖  Yes we are closing by the end of the year I'm committed to give you all the best  ⭐Sweet, Clean, and Discrete 1000% Independent! Real pics or free!  ⭐ rates &lt;b&gt;&lt;u&gt;&lt;b&gt;&lt;b&gt;1&lt;u&gt;90 HOUR and 300 1.5 hours. b&amp;gt;&lt;/u&gt;&lt;/b&gt; Only &lt;b&gt;&lt;b&gt;NO HALF HOUR&lt;/b&gt; &lt;/b&gt;Screening is required br&amp;gt; &lt;/b&gt; &lt;u&gt;&lt;b&gt;&lt;u&gt;&lt;/u&gt;&lt;/b&gt; &lt;/u&gt; &lt;/u&gt;. &lt;b&gt;NO FS don't ask ⭐&lt;b&gt; I DO NOT GIVE REFERENCES DO NOT GIVE MY NUMBER OUT Doubles with gf 400 hour last 3 pics of HER &lt;/b&gt; No African American 🌚🌛luna &lt;b&gt;310-863-0228 &lt;/b&gt;&lt;/b&gt;&lt;/b&gt;</t>
+    <t xml:space="preserve">💖💖Hi 💖💖  Yes we are closing by the end of the year I'm committed to give you all the best  ⭐Sweet, Clean, and Discrete 1000% Independent! Real pics or free!  ⭐ rates     1 90 HOUR and 300 1.5 hours. b&amp;gt;   Only   NO HALF HOUR   Screening is required br&amp;gt;            .  NO FS don't ask ⭐  I DO NOT GIVE REFERENCES DO NOT GIVE MY NUMBER OUT Doubles with gf 400 hour last 3 pics of HER   No African American 🌚🌛luna  310-863-0228    </t>
   </si>
   <si>
     <t>_____Mixed LADY FOR Body Rubs temporary only   🌛_____Noho</t>
@@ -1502,7 +1502,7 @@
     <t>5623738699 9684528</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-color:yellow;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/d.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/w.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/y.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;/a&gt; &amp;lt; &lt;p&gt;~*~*~*~*~*Asian Massage ~*~*~*~*~* &lt;p&gt;&lt;font color="red" size="4"&gt;~*~*~*(562)373-8699~*~*~*&lt;/font&gt; &lt;font color="#0099FF" size="4"&gt; &lt;p&gt;open 7days 10:00am-10:00pm&lt;/p&gt;&lt;/font&gt; &lt;font color="#0099FF" size="5"&gt;&lt;u&gt;11455 Paramount Blvd#E Downey CA90241 (Lots Of Parking Cross Street Firestone Blvd )&lt;/u&gt;&lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;p&gt;BigChangeAllNewGirls&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt; EXACTIY &lt;p&gt; What You've Been Looking For Friendly&amp;amp;WeetCuteAsianGirls.Welcome;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt;Swedish * Shiatsu * Deep tissue * 4 Hands *Body oil massage* &lt;hr/&gt;&lt;p&gt;Enjoy Relaxing Bodywork Mongst RelaxingMusic &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;hr/&gt;&lt;p&gt;&lt;font color="purple" size="5"&gt;--**--WarmRoom,BeautifulMusic--**-- &lt;p&gt;~~*~~*~~*~~ $40/30mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*~~*~~ $50/60mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*Acupuncture $60（by an appointment)~~*~~*&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt; &lt;hr/&gt;&lt;p&gt;Many different Special NEW Asian Pretty Girls on &lt;p&gt;staff to pamper you!!! &lt;p&gt;let our Professional Therapist relax your Body, Mind &amp;amp;Soul; with &lt;p&gt;our Traditional Chinese Full Body Massage. &lt;p&gt;Give us a try! &lt;p&gt;...Walk-ins, &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="200" src="http://dl.glitter-graphics.net/pub/913/913921fehobutr4y.gif" width="500"/&gt;&lt;/a&gt; &lt;div style="visibility:visible;width:540px;margin:auto;"&gt; &lt;/div&gt; &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/div&gt; &lt;p class="metaInfoDisplay"&gt;11455 Paramount Blvd #E Downey CA, 90241    &lt;a href="http://maps.google.com/maps?q=11455+Paramount+Blvd+%23E+Downey+CA+90241" target="_blank"&gt;google map&lt;/a&gt; | &lt;a href="http://maps.yahoo.com/maps_result?addr=11455%20Paramount%20Blvd%20%23E%20Downey%20CA&amp;amp;country=US&amp;amp;csz=90241" target="_blank"&gt;yahoo map&lt;/a&gt; &lt;/p&gt; &lt;div style="padding-left:2em;"&gt; • Location: Downey, Downtown, Long Beach, Los Angeles, 🌹3🌹BeautifulGirlsNewGirlInTown🌹LongBeach &lt;/div&gt; &lt;div style="padding-left:2em;"&gt; • Post ID: 96845287 losangeles&lt;/br&gt;&lt;/div&gt; &lt;div data-oid="96845287" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt; &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=96845287" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; &lt;/center&gt;</t>
+    <t xml:space="preserve"> &lt;center&gt;&lt;div style="background-color:yellow;"&gt; &lt;a href="http://www.glitter-graphics.com/myspace/text_generator.php" target="_blank"&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/d.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/o.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/w.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/y.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/a.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/p.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/n.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/c.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/t.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/u.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/r.gif"/&gt;&lt;img border="0" src="http://text.glitter-graphics.net/hearty/e.gif"/&gt;&lt;img border="0" src="http://dl3.glitter-graphics.net/empty.gif" width="20"/&gt;&lt;/a&gt; &amp;lt; &lt;p&gt;~*~*~*~*~*Asian Massage ~*~*~*~*~* &lt;p&gt;&lt;font color="red" size="4"&gt;~*~*~*(562)373-8699~*~*~*&lt;/font&gt; &lt;font color="#0099FF" size="4"&gt; &lt;p&gt;open 7days 10:00am-10:00pm&lt;/p&gt;&lt;/font&gt; &lt;font color="#0099FF" size="5"&gt; 11455 Paramount Blvd#E Downey CA90241 (Lots Of Parking Cross Street Firestone Blvd ) &lt;/font&gt; &lt;font color="red" size="6"&gt;&lt;p&gt;BigChangeAllNewGirls&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt; EXACTIY &lt;p&gt; What You've Been Looking For Friendly&amp;amp;WeetCuteAsianGirls.Welcome;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt;&lt;p&gt;Swedish * Shiatsu * Deep tissue * 4 Hands *Body oil massage* &lt;hr/&gt;&lt;p&gt;Enjoy Relaxing Bodywork Mongst RelaxingMusic &lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;hr/&gt;&lt;p&gt;&lt;font color="purple" size="5"&gt;--**--WarmRoom,BeautifulMusic--**-- &lt;p&gt;~~*~~*~~*~~ $40/30mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*~~*~~ $50/60mins ~~*~~*~~*~~ &lt;p&gt;~~*~~*Acupuncture $60（by an appointment)~~*~~*&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt; &lt;font color="red" size="5"&gt; &lt;hr/&gt;&lt;p&gt;Many different Special NEW Asian Pretty Girls on &lt;p&gt;staff to pamper you!!! &lt;p&gt;let our Professional Therapist relax your Body, Mind &amp;amp;Soul; with &lt;p&gt;our Traditional Chinese Full Body Massage. &lt;p&gt;Give us a try! &lt;p&gt;...Walk-ins, &lt;a href="http://www.glitter-graphics.com" target="_blank"&gt;&lt;img border="0" height="200" src="http://dl.glitter-graphics.net/pub/913/913921fehobutr4y.gif" width="500"/&gt;&lt;/a&gt; &lt;div style="visibility:visible;width:540px;margin:auto;"&gt; &lt;/div&gt; &lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/font&gt;&lt;/p&gt;&lt;/p&gt;&lt;/p&gt;&lt;/div&gt; &lt;p class="metaInfoDisplay"&gt;11455 Paramount Blvd #E Downey CA, 90241    &lt;a href="http://maps.google.com/maps?q=11455+Paramount+Blvd+%23E+Downey+CA+90241" target="_blank"&gt;google map&lt;/a&gt; | &lt;a href="http://maps.yahoo.com/maps_result?addr=11455%20Paramount%20Blvd%20%23E%20Downey%20CA&amp;amp;country=US&amp;amp;csz=90241" target="_blank"&gt;yahoo map&lt;/a&gt; &lt;/p&gt; &lt;div style="padding-left:2em;"&gt; • Location: Downey, Downtown, Long Beach, Los Angeles, 🌹3🌹BeautifulGirlsNewGirlInTown🌹LongBeach &lt;/div&gt; &lt;div style="padding-left:2em;"&gt; • Post ID: 96845287 losangeles&lt;/br&gt;&lt;/div&gt; &lt;div data-oid="96845287" id="OtherAdsByThisUser"&gt; &lt;noscript&gt; &lt;/noscript&gt; &lt;/div&gt; &lt;script type="text/javascript"&gt; &lt;!-- jQuery("#OtherAdsByThisUser").loadOtherAdsByThisUser(); // --&gt; &lt;/script&gt; &lt;div class="helperLinks" style="margin:2em 0;"&gt; &lt;span style="font-weight:bold;"&gt; &lt;a href="http://posting.losangeles.backpage.com/TherapeuticMassage/classifieds/EmailAd.html?oid=96845287" id="emailThisAd"&gt;email to friend&lt;/a&gt; &lt;/span&gt; &lt;/div&gt; &lt;/center&gt;</t>
   </si>
   <si>
     <t>😍💚💚💚💚🌹Forget About UR Worries😍🎁🎁🎁🎁🎁🎁🌹UR Best Chioce🎀3🌹VEry Y0ung Girls FulFill UR Every Needs！💟💟💟💟💟</t>
